--- a/flowdata/rejected_d10.xlsx
+++ b/flowdata/rejected_d10.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="27">
   <si>
     <t>Mpan</t>
   </si>
@@ -82,6 +82,24 @@
   </si>
   <si>
     <t>MTR= 216801424  READ= R REGUN +    12443.90R</t>
+  </si>
+  <si>
+    <t>D0011</t>
+  </si>
+  <si>
+    <t>D0012</t>
+  </si>
+  <si>
+    <t>D0013</t>
+  </si>
+  <si>
+    <t>D0014</t>
+  </si>
+  <si>
+    <t>D0015</t>
+  </si>
+  <si>
+    <t>D0016</t>
   </si>
 </sst>
 </file>
@@ -124,13 +142,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,6 +556,234 @@
         <v>20</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>6054609733807</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.72715277777777798</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>43831</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>6180269411960</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43832</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.76881944444444394</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2">
+        <v>43832</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>6251851295775</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43833</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.81048611111111102</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2">
+        <v>43833</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6406167790671</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43834</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.85215277777777798</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2">
+        <v>43834</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6500176678507</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43835</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.89381944444444394</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2">
+        <v>43835</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>6605538104564</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43836</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.93548611111111102</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2">
+        <v>43836</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
